--- a/ISRaD_Data/Masiello_2004.xlsx
+++ b/ISRaD_Data/Masiello_2004.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Agatha/Dropbox/ISRaD_data/Entries_In_Progress/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F81DAF2-AB0D-E346-91C9-1CB44FA08AB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="660" windowWidth="24560" windowHeight="8260" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="660" windowWidth="24560" windowHeight="8260" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,12 @@
     <sheet name="incubation" sheetId="8" r:id="rId8"/>
     <sheet name="controlled vocabulary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3034,15 +3033,6 @@
     <t>frc_14c_sd</t>
   </si>
   <si>
-    <t>frc_frc_modern</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sigma</t>
-  </si>
-  <si>
-    <t>frc_frc_modern_sd</t>
-  </si>
-  <si>
     <t>frc_mbc_method</t>
   </si>
   <si>
@@ -4110,13 +4100,22 @@
   </si>
   <si>
     <t>Acid-Base-Acid (ABA)</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sigma</t>
+  </si>
+  <si>
+    <t>frc_fraction_modern_sd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4124,16 +4123,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4141,12 +4159,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4442,14 +4497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4499,7 +4554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4546,7 +4601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4584,7 +4639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4628,18 +4683,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4685,7 +4745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4702,7 +4762,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -4719,7 +4779,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4736,7 +4796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -4753,7 +4813,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -4770,7 +4830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4787,7 +4847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -4804,7 +4864,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -4824,18 +4884,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4945,7 +5010,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5055,7 +5120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5150,7 +5215,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -5191,7 +5256,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -5232,7 +5297,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5273,7 +5338,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -5314,7 +5379,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -5355,7 +5420,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -5396,7 +5461,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -5440,18 +5505,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5564,7 +5634,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5674,7 +5744,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5757,24 +5827,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ49" workbookViewId="0">
+    <sheetView topLeftCell="AJ49" workbookViewId="0">
       <selection activeCell="AV52" sqref="AV52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6070,7 +6145,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6366,7 +6441,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6605,7 +6680,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -6664,7 +6739,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -6723,7 +6798,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -6782,7 +6857,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6841,7 +6916,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6900,7 +6975,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -6959,7 +7034,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -7018,7 +7093,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -7077,7 +7152,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -7118,7 +7193,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -7159,7 +7234,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -7200,7 +7275,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -7241,7 +7316,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -7282,7 +7357,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -7323,7 +7398,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7364,7 +7439,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -7405,7 +7480,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -7464,7 +7539,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -7523,7 +7598,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -7582,7 +7657,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -7641,7 +7716,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -7700,7 +7775,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -7759,7 +7834,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -7818,7 +7893,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7877,7 +7952,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -7936,7 +8011,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -7995,7 +8070,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:70">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -8054,7 +8129,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:70">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -8113,7 +8188,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:70">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -8172,7 +8247,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:70">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -8231,7 +8306,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:70">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -8290,7 +8365,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:70">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -8349,7 +8424,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:70">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -8408,7 +8483,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:70">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -8467,7 +8542,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:70">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -8526,7 +8601,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:70">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -8585,7 +8660,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:70">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -8644,7 +8719,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:70">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -8703,7 +8778,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:70">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -8762,7 +8837,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:70">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -8821,7 +8896,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:70">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -8880,7 +8955,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:70">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -8939,7 +9014,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:70">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -8998,7 +9073,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:70">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -9057,7 +9132,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:70">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -9116,7 +9191,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:70">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -9175,7 +9250,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:70">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -9234,7 +9309,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:70">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -9293,7 +9368,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:70">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -9352,7 +9427,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:70">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -9411,7 +9486,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:70">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -9470,7 +9545,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:70">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -9529,7 +9604,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:70">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -9588,7 +9663,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:70">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -9647,7 +9722,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:70">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -9706,7 +9781,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:70">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -9772,18 +9847,23 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9869,7 +9949,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9952,7 +10032,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10002,18 +10082,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1:AK1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:73" ht="52">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10116,125 +10203,125 @@
       <c r="AH1" t="s">
         <v>1000</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AL1" t="s">
         <v>1001</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>1002</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>1003</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>1004</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>1005</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>1006</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>1007</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>1008</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>1009</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>1010</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>1011</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>1012</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>1013</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>1014</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>1015</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>1016</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>1017</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>1018</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>1019</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>1020</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>1021</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>1022</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>1023</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>1024</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>1025</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>1026</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>1027</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>1028</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>1029</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>1030</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>1031</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>1032</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>1033</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>1034</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>1035</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>1036</v>
       </c>
-      <c r="BS1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>1039</v>
-      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -10248,40 +10335,40 @@
         <v>371</v>
       </c>
       <c r="E2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H2" t="s">
         <v>1040</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>1041</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>1042</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>1043</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>1044</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>1045</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>1046</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>1047</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>1048</v>
-      </c>
-      <c r="N2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="P2" t="s">
-        <v>1051</v>
       </c>
       <c r="Q2" t="s">
         <v>234</v>
@@ -10293,28 +10380,28 @@
         <v>236</v>
       </c>
       <c r="U2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X2" t="s">
         <v>1052</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>1053</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>1054</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>1055</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>1056</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>1059</v>
       </c>
       <c r="AC2" t="s">
         <v>255</v>
@@ -10326,22 +10413,22 @@
         <v>257</v>
       </c>
       <c r="AF2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AI2" t="s">
         <v>1060</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>1061</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AK2" t="s">
         <v>1062</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>1065</v>
       </c>
       <c r="AL2" t="s">
         <v>419</v>
@@ -10365,7 +10452,7 @@
         <v>428</v>
       </c>
       <c r="AS2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="AT2" t="s">
         <v>430</v>
@@ -10416,7 +10503,7 @@
         <v>446</v>
       </c>
       <c r="BJ2" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="BK2" t="s">
         <v>448</v>
@@ -10452,24 +10539,24 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:73">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I3" t="s">
         <v>1068</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>1069</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1072</v>
       </c>
       <c r="N3" t="s">
         <v>153</v>
@@ -10529,49 +10616,49 @@
         <v>468</v>
       </c>
       <c r="AO3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AP3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AQ3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AR3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AT3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AU3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AV3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AW3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AY3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="AZ3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="BA3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="BB3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="BD3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="BE3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="BF3" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="BG3" t="s">
         <v>470</v>
@@ -10622,18 +10709,23 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10650,82 +10742,82 @@
         <v>971</v>
       </c>
       <c r="F1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I1" t="s">
         <v>1074</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1075</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1076</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>1077</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1078</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>1079</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>1080</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>1081</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>1082</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>1083</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>1084</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>1085</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>1086</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>1087</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>1088</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>1089</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>1090</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>1091</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>1092</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>1093</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>1094</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>1095</v>
       </c>
-      <c r="AB1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1098</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -10733,16 +10825,16 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F2" t="s">
         <v>1099</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1102</v>
       </c>
       <c r="G2" t="s">
         <v>377</v>
@@ -10757,28 +10849,28 @@
         <v>236</v>
       </c>
       <c r="K2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="N2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="P2" t="s">
         <v>1103</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>1104</v>
       </c>
-      <c r="O2" t="s">
+      <c r="R2" t="s">
         <v>1105</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>1106</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>1107</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="T2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="U2" t="s">
-        <v>1110</v>
       </c>
       <c r="V2" t="s">
         <v>255</v>
@@ -10790,25 +10882,25 @@
         <v>257</v>
       </c>
       <c r="Y2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AB2" t="s">
         <v>1111</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>1112</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
         <v>1113</v>
       </c>
-      <c r="AB2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>1116</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -10825,13 +10917,13 @@
         <v>970</v>
       </c>
       <c r="L3" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="M3" t="s">
         <v>155</v>
       </c>
       <c r="P3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="Q3" t="s">
         <v>159</v>
@@ -10858,152 +10950,157 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44">
       <c r="A1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D1" t="s">
         <v>1119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>1121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>1123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>1124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>1125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>1126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>1127</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>1128</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>1129</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>1130</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>1131</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>1132</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>1133</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>1134</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>1135</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>1136</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>1137</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>1138</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>1139</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>1140</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>1141</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>1142</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>1143</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>1144</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>1145</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>1146</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>1147</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>1148</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>1149</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>1150</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>1151</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>1152</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>1153</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>1154</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>1155</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>1156</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>1157</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>1158</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>1159</v>
       </c>
-      <c r="AP1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>1162</v>
-      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -11083,7 +11180,7 @@
         <v>287</v>
       </c>
       <c r="AA2" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="AB2" t="s">
         <v>932</v>
@@ -11101,22 +11198,22 @@
         <v>941</v>
       </c>
       <c r="AG2" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="AH2" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="AI2" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="AK2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AL2" t="s">
         <v>1084</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>1087</v>
       </c>
       <c r="AM2" t="s">
         <v>974</v>
@@ -11134,736 +11231,741 @@
         <v>980</v>
       </c>
       <c r="AR2" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44">
       <c r="G3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1164</v>
+      </c>
+      <c r="U3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AO3" t="s">
         <v>1165</v>
       </c>
-      <c r="H3" t="s">
+      <c r="AP3" t="s">
         <v>1166</v>
       </c>
-      <c r="I3" t="s">
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" t="s">
         <v>1167</v>
       </c>
-      <c r="U3" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>1043</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="B4" t="s">
         <v>1168</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="C4" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
         <v>1170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1173</v>
       </c>
       <c r="E4" t="s">
         <v>177</v>
       </c>
       <c r="F4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I4" t="s">
         <v>1174</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>1175</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1178</v>
       </c>
       <c r="K4" t="s">
         <v>173</v>
       </c>
       <c r="L4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="N4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="O4" t="s">
         <v>1179</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>1180</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>1181</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="T4" t="s">
         <v>1182</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>1183</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="V4" t="s">
         <v>1184</v>
       </c>
-      <c r="R4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="S4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>1185</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="Z4" t="s">
         <v>1186</v>
       </c>
-      <c r="V4" t="s">
+      <c r="AA4" t="s">
         <v>1187</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AB4" t="s">
         <v>1188</v>
       </c>
-      <c r="X4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="AD4" t="s">
         <v>1189</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="AF4" t="s">
         <v>1190</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AG4" t="s">
         <v>1191</v>
       </c>
-      <c r="AC4" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="AI4" t="s">
         <v>1192</v>
       </c>
-      <c r="AE4" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AJ4" t="s">
         <v>1193</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AK4" t="s">
         <v>1194</v>
       </c>
-      <c r="AH4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AL4" t="s">
         <v>1195</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" t="s">
         <v>1196</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>1197</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AO4" t="s">
         <v>1198</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AP4" t="s">
         <v>1199</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AQ4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44">
+      <c r="A5" t="s">
         <v>1200</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="B5" t="s">
         <v>1201</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="D5" t="s">
         <v>1202</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>1188</v>
+      <c r="E5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="N5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="P5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="V5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1219</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="P5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="T5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="U5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="V5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="W5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="AN5" t="s">
+    <row r="6" spans="1:44">
+      <c r="A6" t="s">
         <v>1233</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="B6" t="s">
         <v>1234</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="D6" t="s">
         <v>1235</v>
       </c>
-      <c r="AR5" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
         <v>1236</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>1237</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
         <v>1238</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>1239</v>
       </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>1240</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>1241</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>1242</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>1243</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>1244</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>1245</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>1246</v>
-      </c>
-      <c r="N6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="P6" t="s">
-        <v>1249</v>
       </c>
       <c r="Q6" t="s">
         <v>970</v>
       </c>
       <c r="T6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="U6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="V6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W6" t="s">
         <v>1250</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>1251</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>1252</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
+        <v>1243</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AF6" t="s">
         <v>1253</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AG6" t="s">
         <v>1254</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AH6" t="s">
         <v>1255</v>
       </c>
-      <c r="AC6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1249</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AI6" t="s">
         <v>1256</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AM6" t="s">
         <v>1257</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AN6" t="s">
         <v>1258</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>1259</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>1261</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>1262</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="B7" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="F7" t="s">
         <v>179</v>
       </c>
       <c r="G7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="L7" t="s">
         <v>1265</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>1266</v>
       </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>1267</v>
       </c>
-      <c r="L7" t="s">
+      <c r="P7" t="s">
         <v>1268</v>
       </c>
-      <c r="M7" t="s">
+      <c r="T7" t="s">
         <v>1269</v>
       </c>
-      <c r="N7" t="s">
+      <c r="U7" t="s">
         <v>1270</v>
       </c>
-      <c r="P7" t="s">
+      <c r="V7" t="s">
         <v>1271</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>1272</v>
       </c>
-      <c r="U7" t="s">
+      <c r="AC7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AF7" t="s">
         <v>1273</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AG7" t="s">
         <v>1274</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AI7" t="s">
         <v>1275</v>
       </c>
-      <c r="AC7" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1271</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AM7" t="s">
         <v>1276</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AN7" t="s">
         <v>1277</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AO7" t="s">
         <v>1278</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AP7" t="s">
         <v>1279</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AR7" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44">
+      <c r="A8" t="s">
         <v>1280</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="B8" t="s">
         <v>1281</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="F8" t="s">
         <v>1282</v>
       </c>
-      <c r="AR7" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
         <v>1283</v>
       </c>
-      <c r="B8" t="s">
+      <c r="H8" t="s">
         <v>1284</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" t="s">
         <v>1285</v>
       </c>
-      <c r="G8" t="s">
+      <c r="L8" t="s">
         <v>1286</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8" t="s">
         <v>1287</v>
       </c>
-      <c r="J8" t="s">
+      <c r="N8" t="s">
         <v>1288</v>
       </c>
-      <c r="L8" t="s">
+      <c r="P8" t="s">
         <v>1289</v>
       </c>
-      <c r="M8" t="s">
+      <c r="T8" t="s">
         <v>1290</v>
       </c>
-      <c r="N8" t="s">
+      <c r="U8" t="s">
         <v>1291</v>
       </c>
-      <c r="P8" t="s">
+      <c r="V8" t="s">
         <v>1292</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
+        <v>1236</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AG8" t="s">
         <v>1293</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AM8" t="s">
         <v>1294</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AN8" t="s">
         <v>1295</v>
       </c>
-      <c r="W8" t="s">
-        <v>1239</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1290</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1292</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AO8" t="s">
         <v>1296</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>1297</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>1299</v>
       </c>
       <c r="AP8" t="s">
         <v>970</v>
       </c>
       <c r="AR8" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44">
       <c r="A9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G9" t="s">
         <v>1300</v>
       </c>
-      <c r="B9" t="s">
+      <c r="H9" t="s">
         <v>1301</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>1302</v>
       </c>
-      <c r="G9" t="s">
+      <c r="L9" t="s">
         <v>1303</v>
       </c>
-      <c r="H9" t="s">
+      <c r="M9" t="s">
         <v>1304</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>1305</v>
       </c>
-      <c r="L9" t="s">
+      <c r="T9" t="s">
         <v>1306</v>
       </c>
-      <c r="M9" t="s">
+      <c r="U9" t="s">
         <v>1307</v>
       </c>
-      <c r="P9" t="s">
+      <c r="AE9" t="s">
         <v>1308</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AG9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AM9" t="s">
         <v>1309</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AN9" t="s">
         <v>1310</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AO9" t="s">
         <v>1311</v>
       </c>
-      <c r="AG9" t="s">
-        <v>1307</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AP9" t="s">
         <v>1312</v>
       </c>
-      <c r="AN9" t="s">
+    </row>
+    <row r="10" spans="1:44">
+      <c r="A10" t="s">
         <v>1313</v>
       </c>
-      <c r="AO9" t="s">
+      <c r="B10" t="s">
         <v>1314</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="F10" t="s">
         <v>1315</v>
       </c>
+      <c r="G10" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1317</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1322</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1319</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1320</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1321</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>1322</v>
-      </c>
-      <c r="AN10" t="s">
+    <row r="11" spans="1:44">
+      <c r="B11" t="s">
         <v>1323</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="F11" t="s">
         <v>1324</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="H11" t="s">
         <v>1325</v>
       </c>
+      <c r="U11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1329</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1327</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1328</v>
-      </c>
-      <c r="U11" t="s">
-        <v>1329</v>
-      </c>
-      <c r="AM11" t="s">
+    <row r="12" spans="1:44">
+      <c r="H12" t="s">
         <v>1330</v>
       </c>
-      <c r="AN11" t="s">
+      <c r="U12" t="s">
         <v>1331</v>
       </c>
-      <c r="AO11" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="AM12" t="s">
         <v>1332</v>
       </c>
+      <c r="AN12" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>1334</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="H12" t="s">
-        <v>1333</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AM12" t="s">
+    <row r="13" spans="1:44">
+      <c r="U13" t="s">
         <v>1335</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AM13" t="s">
         <v>1336</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AN13" t="s">
         <v>1337</v>
       </c>
+      <c r="AO13" t="s">
+        <v>1338</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="U13" t="s">
-        <v>1338</v>
-      </c>
-      <c r="AM13" t="s">
+    <row r="14" spans="1:44">
+      <c r="U14" t="s">
         <v>1339</v>
       </c>
-      <c r="AN13" t="s">
+      <c r="AN14" t="s">
         <v>1340</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AO14" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="U14" t="s">
+    <row r="15" spans="1:44">
+      <c r="U15" t="s">
         <v>1342</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AN15" t="s">
         <v>1343</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AO15" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="U15" t="s">
+    <row r="16" spans="1:44">
+      <c r="U16" t="s">
         <v>1345</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AN16" t="s">
         <v>1346</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AO16" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="U16" t="s">
+    <row r="17" spans="40:41">
+      <c r="AN17" t="s">
         <v>1348</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO17" t="s">
         <v>1349</v>
       </c>
-      <c r="AO16" t="s">
+    </row>
+    <row r="18" spans="40:41">
+      <c r="AN18" t="s">
         <v>1350</v>
       </c>
+      <c r="AO18" t="s">
+        <v>1351</v>
+      </c>
     </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN17" t="s">
-        <v>1351</v>
-      </c>
-      <c r="AO17" t="s">
+    <row r="19" spans="40:41">
+      <c r="AN19" t="s">
         <v>1352</v>
       </c>
+      <c r="AO19" t="s">
+        <v>1353</v>
+      </c>
     </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN18" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AO18" t="s">
+    <row r="20" spans="40:41">
+      <c r="AN20" t="s">
         <v>1354</v>
       </c>
+      <c r="AO20" t="s">
+        <v>1355</v>
+      </c>
     </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN19" t="s">
-        <v>1355</v>
-      </c>
-      <c r="AO19" t="s">
+    <row r="21" spans="40:41">
+      <c r="AN21" t="s">
         <v>1356</v>
-      </c>
-    </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN20" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.2">
-      <c r="AN21" t="s">
-        <v>1359</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ISRaD_Data/Masiello_2004.xlsx
+++ b/ISRaD_Data/Masiello_2004.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="660" windowWidth="24560" windowHeight="8260" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="660" windowWidth="18980" windowHeight="15300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="incubation" sheetId="8" r:id="rId8"/>
     <sheet name="controlled vocabulary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="1362">
   <si>
     <t>entry_name</t>
   </si>
@@ -4109,13 +4109,19 @@
   </si>
   <si>
     <t>frc_fraction_modern_sd</t>
+  </si>
+  <si>
+    <t>Mattole</t>
+  </si>
+  <si>
+    <t>pro_elevation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4135,6 +4141,22 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4188,8 +4210,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4203,7 +4239,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4695,9 +4745,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -4894,13 +4949,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4923,94 +4985,97 @@
         <v>89</v>
       </c>
       <c r="H1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>99</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>100</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>101</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>102</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>103</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>104</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>105</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5032,95 +5097,95 @@
       <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>124</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>125</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>126</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>127</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>128</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>129</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>130</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>131</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>132</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>133</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>134</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>135</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>136</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>137</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>138</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>139</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>140</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>141</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>142</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>143</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>144</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>145</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>146</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>147</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>148</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>149</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5134,43 +5199,43 @@
         <v>67</v>
       </c>
       <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
         <v>152</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>153</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>154</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>155</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>156</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>157</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>158</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>155</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>159</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>160</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>161</v>
-      </c>
-      <c r="V3" t="s">
-        <v>162</v>
       </c>
       <c r="W3" t="s">
         <v>162</v>
@@ -5179,326 +5244,350 @@
         <v>162</v>
       </c>
       <c r="Y3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z3" t="s">
         <v>163</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>164</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>165</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>166</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>167</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>168</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>159</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>169</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>170</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>171</v>
       </c>
       <c r="AI3" t="s">
         <v>171</v>
       </c>
       <c r="AJ3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AK3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="D4" t="s">
         <v>172</v>
       </c>
       <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
         <v>173</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>174</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>175</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>176</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>177</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>178</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>179</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>181</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="D5" t="s">
         <v>183</v>
       </c>
       <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
         <v>173</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>174</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>175</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>184</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>177</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>84</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>179</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>181</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="D6" t="s">
         <v>186</v>
       </c>
       <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
         <v>173</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>174</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>175</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>176</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>177</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>187</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>179</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>180</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="D7" t="s">
         <v>189</v>
       </c>
       <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
         <v>173</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>174</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>175</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>184</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>177</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>190</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>179</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>181</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="D8" t="s">
         <v>191</v>
       </c>
       <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
         <v>173</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>174</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>175</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>192</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>177</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>193</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>179</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>180</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="D9" t="s">
         <v>194</v>
       </c>
       <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
         <v>173</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>174</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>175</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>184</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>177</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>190</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>179</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>180</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>181</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="D10" t="s">
         <v>195</v>
       </c>
       <c r="H10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
         <v>173</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>174</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>175</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>192</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>177</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>196</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>179</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>180</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>181</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5839,14 +5928,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT59"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ49" workbookViewId="0">
-      <selection activeCell="AV52" sqref="AV52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:98">
@@ -6685,7 +6776,7 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C4" t="s">
         <v>191</v>
@@ -6744,7 +6835,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C5" t="s">
         <v>191</v>
@@ -6803,7 +6894,7 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C6" t="s">
         <v>191</v>
@@ -6862,7 +6953,7 @@
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C7" t="s">
         <v>191</v>
@@ -6921,7 +7012,7 @@
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C8" t="s">
         <v>191</v>
@@ -6980,7 +7071,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C9" t="s">
         <v>191</v>
@@ -7039,7 +7130,7 @@
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C10" t="s">
         <v>191</v>
@@ -7098,7 +7189,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>1360</v>
       </c>
       <c r="C11" t="s">
         <v>191</v>
@@ -7157,7 +7248,7 @@
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C12" t="s">
         <v>195</v>
@@ -7198,7 +7289,7 @@
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C13" t="s">
         <v>195</v>
@@ -7239,7 +7330,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C14" t="s">
         <v>195</v>
@@ -7280,7 +7371,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C15" t="s">
         <v>195</v>
@@ -7321,7 +7412,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C16" t="s">
         <v>195</v>
@@ -7362,7 +7453,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C17" t="s">
         <v>195</v>
@@ -7403,7 +7494,7 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C18" t="s">
         <v>195</v>
@@ -7444,7 +7535,7 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>1360</v>
       </c>
       <c r="C19" t="s">
         <v>195</v>
@@ -7485,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C20" t="s">
         <v>194</v>
@@ -7544,7 +7635,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C21" t="s">
         <v>194</v>
@@ -7603,7 +7694,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C22" t="s">
         <v>194</v>
@@ -7662,7 +7753,7 @@
         <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C23" t="s">
         <v>194</v>
@@ -7721,7 +7812,7 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C24" t="s">
         <v>194</v>
@@ -7780,7 +7871,7 @@
         <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C25" t="s">
         <v>194</v>
@@ -7839,7 +7930,7 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>1360</v>
       </c>
       <c r="C26" t="s">
         <v>194</v>
@@ -7898,7 +7989,7 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C27" t="s">
         <v>189</v>
@@ -7957,7 +8048,7 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C28" t="s">
         <v>189</v>
@@ -8016,7 +8107,7 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C29" t="s">
         <v>189</v>
@@ -8075,7 +8166,7 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C30" t="s">
         <v>189</v>
@@ -8134,7 +8225,7 @@
         <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C31" t="s">
         <v>189</v>
@@ -8193,7 +8284,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C32" t="s">
         <v>189</v>
@@ -8252,7 +8343,7 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C33" t="s">
         <v>189</v>
@@ -8311,7 +8402,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C34" t="s">
         <v>189</v>
@@ -8370,7 +8461,7 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>1360</v>
       </c>
       <c r="C35" t="s">
         <v>189</v>
@@ -8429,7 +8520,7 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C36" t="s">
         <v>183</v>
@@ -8488,7 +8579,7 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C37" t="s">
         <v>183</v>
@@ -8547,7 +8638,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C38" t="s">
         <v>183</v>
@@ -8606,7 +8697,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C39" t="s">
         <v>183</v>
@@ -8665,7 +8756,7 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C40" t="s">
         <v>183</v>
@@ -8724,7 +8815,7 @@
         <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C41" t="s">
         <v>183</v>
@@ -8783,7 +8874,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C42" t="s">
         <v>183</v>
@@ -8842,7 +8933,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C43" t="s">
         <v>183</v>
@@ -8901,7 +8992,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>1360</v>
       </c>
       <c r="C44" t="s">
         <v>183</v>
@@ -8960,7 +9051,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C45" t="s">
         <v>172</v>
@@ -9019,7 +9110,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C46" t="s">
         <v>172</v>
@@ -9078,7 +9169,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C47" t="s">
         <v>172</v>
@@ -9137,7 +9228,7 @@
         <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C48" t="s">
         <v>172</v>
@@ -9196,7 +9287,7 @@
         <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C49" t="s">
         <v>172</v>
@@ -9255,7 +9346,7 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C50" t="s">
         <v>172</v>
@@ -9314,7 +9405,7 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C51" t="s">
         <v>172</v>
@@ -9373,7 +9464,7 @@
         <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>1360</v>
       </c>
       <c r="C52" t="s">
         <v>172</v>
@@ -9432,7 +9523,7 @@
         <v>43</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C53" t="s">
         <v>186</v>
@@ -9491,7 +9582,7 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C54" t="s">
         <v>186</v>
@@ -9550,7 +9641,7 @@
         <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C55" t="s">
         <v>186</v>
@@ -9609,7 +9700,7 @@
         <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C56" t="s">
         <v>186</v>
@@ -9668,7 +9759,7 @@
         <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C57" t="s">
         <v>186</v>
@@ -9727,7 +9818,7 @@
         <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C58" t="s">
         <v>186</v>
@@ -9786,7 +9877,7 @@
         <v>43</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>1360</v>
       </c>
       <c r="C59" t="s">
         <v>186</v>
@@ -9841,7 +9932,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:CT59">
+  <sortState ref="A4:CU59">
     <sortCondition ref="B4:B59"/>
     <sortCondition ref="I4:I59"/>
   </sortState>
@@ -10094,7 +10185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AI1" sqref="AI1:AK1"/>
     </sheetView>
   </sheetViews>
